--- a/docs/StructureDefinition-Symptom.xlsx
+++ b/docs/StructureDefinition-Symptom.xlsx
@@ -1550,7 +1550,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
